--- a/Evaluation files/mt5-eval.xlsx
+++ b/Evaluation files/mt5-eval.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elmal\Documents\SchoolNotes\CompSci685\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BD40CD5B-D7DB-4F7D-8B02-E241BF16200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CED088-132F-4EB4-9719-77B41A511D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{D1C86217-DC35-4CC3-98FE-86F5F4A6095B}"/>
   </bookViews>
   <sheets>
     <sheet name="mt5-eval" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>en</t>
   </si>
@@ -37,200 +50,197 @@
     <t>Accuracy:</t>
   </si>
   <si>
-    <t>However, we should not become overly concerned with literature.</t>
-  </si>
-  <si>
-    <t>The majority of Spain's population (94%) are Catholic.</t>
-  </si>
-  <si>
-    <t>It can reproduce vegetatively or by seed.</t>
-  </si>
-  <si>
-    <t>Increased efficiency &amp; effectiveness of adjunctions</t>
-  </si>
-  <si>
-    <t>No explanation for these large differences is readily apparent.</t>
-  </si>
-  <si>
-    <t>In 1796 York (named Toronto in 1834) became the capital of Upper Canada.</t>
-  </si>
-  <si>
-    <t>An increase in the quality of surveillance.</t>
-  </si>
-  <si>
-    <t>You can also download the Council's logo at the following address:</t>
-  </si>
-  <si>
-    <t>Ecological benchmarks are important.</t>
-  </si>
-  <si>
-    <t>The deadline for making the referral request remains essentially unchanged, at 15 working days.</t>
-  </si>
-  <si>
-    <t>(b) if any other case, the standard fee set out in that item.</t>
-  </si>
-  <si>
-    <t>The ERMS must provide an audit trail of all changes made to administrative parameters.</t>
-  </si>
-  <si>
-    <t>DFAIT had the opportunity to comment on the evaluation matrix early in the process.</t>
-  </si>
-  <si>
-    <t>The last step is feedback to the employee.</t>
-  </si>
-  <si>
-    <t>It has been put this way by the Supreme Court of Canada:</t>
-  </si>
-  <si>
-    <t>Select "Fellowships - Industry-Partnered" from the Application Packages page.</t>
-  </si>
-  <si>
-    <t>An estimated 80 % of the DCM evaporates during the stripping process.</t>
-  </si>
-  <si>
-    <t>You'll find hundreds of careers for visual creators and workers.</t>
-  </si>
-  <si>
-    <t>An effort to re-introduce the OPG concept is currently under review.</t>
-  </si>
-  <si>
-    <t>[2] Attention is drawn to the following places:</t>
-  </si>
-  <si>
-    <t>IV. i. THE CURRENT STATUS OF THE PARLIAMENTARY ASSEMBLY WITHIN THE COE General remarks</t>
-  </si>
-  <si>
-    <t>IV. i. LE STATUS CURRENT DE LA ASSEMBLE PARLIAMENTALE SUR LA COE</t>
-  </si>
-  <si>
-    <t>~1 to 2% of sites are inspected yearly.</t>
-  </si>
-  <si>
-    <t>CRIME STOPPERS</t>
-  </si>
-  <si>
-    <t>STOPPERS DE CRIME</t>
-  </si>
-  <si>
-    <t>It had not done so previously in the course of the proceedings before OHIM.</t>
-  </si>
-  <si>
-    <t>Il n'a pas ‚t‚ r‚alis‚ … l'examen de l'OHIM avant l'OHIM.</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
-    <t>• Freight issue could not be assessed.</t>
-  </si>
-  <si>
-    <t>• Le problème de transport ne peut pas être examiné.</t>
-  </si>
-  <si>
-    <t>• Potentially - other departments/agencies</t>
-  </si>
-  <si>
-    <t>• Potentiellement - autres ministères/organismes</t>
-  </si>
-  <si>
-    <t>– The voting is open. Amendment No. 30 is adopted.</t>
-  </si>
-  <si>
-    <t>– Le vote est ouvert. Amendment No 30 est adopté.</t>
-  </si>
-  <si>
-    <t>Toutefois, nous ne pouvons pas être très intéressés à la littérature.</t>
-  </si>
-  <si>
-    <t>· Definition of undertaking) (First Chamber, Extended Composition)</t>
-  </si>
-  <si>
-    <t>· Définition de l'exercice) (seconde Chambre, composition extended)</t>
-  </si>
-  <si>
-    <t>La majorité des populations de l'Espagne (94%) sont catholiques.</t>
-  </si>
-  <si>
-    <t>Il peut reproduire végétellement ou par plantes.</t>
-  </si>
-  <si>
-    <t>• Research and Analysis</t>
-  </si>
-  <si>
-    <t>• Recherche et analyse</t>
-  </si>
-  <si>
-    <t>Meilleure efficacité et efficacité des adjoints</t>
-  </si>
-  <si>
-    <t>Les différences larges sont très apparentes.</t>
-  </si>
-  <si>
-    <t>En 1796 York (nommée Toronto en 1834) a été le capital du Canada.</t>
-  </si>
-  <si>
-    <t>Un amélioration de la qualité de la surveillance.</t>
-  </si>
-  <si>
-    <t>Vous pouvez également imprimer le logo du Conseil à l'adresse suivante:</t>
-  </si>
-  <si>
-    <t>Les benchmarks écologiques sont importants.</t>
-  </si>
-  <si>
-    <t>Le délai d'obtenir le demandeur de renseignement n'est pas nécessaire à 15 jours.</t>
-  </si>
-  <si>
-    <t>(b) si l'autre cas, le taux standard a été fixé dans ce item.</t>
-  </si>
-  <si>
-    <t>L'ERMS doit fournir un trail de vérification de toutes les changements apportés aux parameters administratives.</t>
-  </si>
-  <si>
-    <t>Le DFAIT a été invité à commenter le matrix de l'évaluation après le processus.</t>
-  </si>
-  <si>
-    <t>La première étape est la réponse à l'employeur.</t>
-  </si>
-  <si>
-    <t>Il a été fait cette voie par la Cour suprême du Canada :</t>
-  </si>
-  <si>
-    <t>Cliquez sur «Fellowships - Industrie-Partnered » de la page de l'application.</t>
-  </si>
-  <si>
-    <t>Un échantillon de 80 % de la DCM a augmenté durant le processus de fabrication.</t>
-  </si>
-  <si>
-    <t>Vous trouverez plusieurs emplois pour les artistes visuals et les employés.</t>
-  </si>
-  <si>
-    <t>Un effort de renouveler le concept d’OPG est maintenant en cours de réexamen.</t>
-  </si>
-  <si>
-    <t>[2] Attention est attribuée à les places suivantes :</t>
-  </si>
-  <si>
-    <t>• Protection de l'environnement et de la qualité de vie</t>
-  </si>
-  <si>
-    <t>• Protection of the landscape and quality of life</t>
-  </si>
-  <si>
-    <t>~1 % des sites sont inspectés annuellement.</t>
-  </si>
-  <si>
-    <t>Il n'a pas été réalisé à l'examen de l'OHIM avant l'OHIM.</t>
+    <t>DND Photo Another LAV III protective detachment.</t>
+  </si>
+  <si>
+    <t>DND Photo Another LAV III protective detachement.</t>
+  </si>
+  <si>
+    <t>Landborder Conference Date(s): 2005-06-13 to 2005-06-15 Destination(s):</t>
+  </si>
+  <si>
+    <t>Conférence de l'échange de terres Date(s) : 2005-06-13 à 2005-06-15 Destination(s) :</t>
+  </si>
+  <si>
+    <t>• Recognize behaviour change as necessary throughout all themes.</t>
+  </si>
+  <si>
+    <t>• Déterminer la changement de comportement dans toutes les themes.</t>
+  </si>
+  <si>
+    <t>Some fishers also hold licences to fish herring for bait.</t>
+  </si>
+  <si>
+    <t>La plupart des pêcheurs sont également autorisés à l'égard des eaux de l'eau.</t>
+  </si>
+  <si>
+    <t>If symptoms occur, get medical assistance immediately.</t>
+  </si>
+  <si>
+    <t>Si les symptômes sont élevés, vous procurez l'aide médicale directement.</t>
+  </si>
+  <si>
+    <t>In 2005 growth is forecast to rise to 3.3 per cent.</t>
+  </si>
+  <si>
+    <t>En 2005, le taux de croissance est estimé à 3,3 %.</t>
+  </si>
+  <si>
+    <t>The documents listed below are country-specific.</t>
+  </si>
+  <si>
+    <t>Les documents énumérés ci-dessous sont très spécifiques.</t>
+  </si>
+  <si>
+    <t>It noted that it was true that the PCIPD already had a mandate which included certain aspects.</t>
+  </si>
+  <si>
+    <t>Il a noté que le PCIPD a encore été remplacé de certains aspects.</t>
+  </si>
+  <si>
+    <t>I have persisted in using the term &gt;utilitarian= for two reasons.</t>
+  </si>
+  <si>
+    <t>Je suis persisté à utiliser le terme &gt;utilitaire= pour deux raisons.</t>
+  </si>
+  <si>
+    <t>The provisions of this Article are not restricted by Article 1.</t>
+  </si>
+  <si>
+    <t>Les dispositions de cette article ne sont pas restrictées par l'article 1.</t>
+  </si>
+  <si>
+    <t>• Self-serve and PWGSC in collaboration with employer</t>
+  </si>
+  <si>
+    <t>• Vente et collaboration avec l'employeur</t>
+  </si>
+  <si>
+    <t>• High energy prices represent an increased cost component which impacts on the steel industry.</t>
+  </si>
+  <si>
+    <t>• Les prix élevés représentent une composante élevée qui impacte la industrie de l'acier.</t>
+  </si>
+  <si>
+    <t>Orders the Commission to pay the costs.‘</t>
+  </si>
+  <si>
+    <t>Demande la Commission à payer les coûts.</t>
+  </si>
+  <si>
+    <t>PROTEGRA TECHNOLOGY GROUP Reference Number:</t>
+  </si>
+  <si>
+    <t>PROTEGRA TECHNOLOGY GROUP Numéro de référence :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There was no abuse of authority in the decision to appoint Ms. McGuiness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il n'y a pas de droit d'autorité dans la décision d'appoint Mme McGuiness.</t>
+  </si>
+  <si>
+    <t>• Assess the contracts governing consumers' use of these cards.</t>
+  </si>
+  <si>
+    <t>• Assesser les contrats concernant les consommateurs de ces cartes.</t>
+  </si>
+  <si>
+    <t>• How did West Nile virus get to North America?</t>
+  </si>
+  <si>
+    <t>• Comment a-t-il été le virus West Nile à North America?</t>
+  </si>
+  <si>
+    <t>(See paragraph 11 of document SCIT/SDWG/2/14.)</t>
+  </si>
+  <si>
+    <t>(Voir paragraphe 11 du document SCIT/SDWG/2/14.)</t>
+  </si>
+  <si>
+    <t>You wonder why this problem has developed.</t>
+  </si>
+  <si>
+    <t>Vous pensez que ce problème a été développé.</t>
+  </si>
+  <si>
+    <t>Changes in the value of stocks could be due to the following factors.</t>
+  </si>
+  <si>
+    <t>Les changements dans la valeur des stocks peuvent être causés aux facteurs suivants.</t>
+  </si>
+  <si>
+    <t>A model is given in Annex UA.IV.</t>
+  </si>
+  <si>
+    <t>Un model est présenté en Annexe UA.IV.</t>
+  </si>
+  <si>
+    <t>As well, the loss of positions reduced INAC's ability to input data and to monitor.</t>
+  </si>
+  <si>
+    <t>En outre, la perte de positions a diminué la capacité de l'INAC à l'enregistrement et à surveiller.</t>
+  </si>
+  <si>
+    <t>It has 1462 residents, 1190 of which are permanent residents.</t>
+  </si>
+  <si>
+    <t>Il a 1462 résidents, 1190 de qui sont permanents.</t>
+  </si>
+  <si>
+    <t>Between 1997 and 1999, the Canada-Québec Labour Market Agreement was negotiated and signed.</t>
+  </si>
+  <si>
+    <t>Pendant 1997 et 1999, l'Accord du Canada-Québec a été signé et signé.</t>
+  </si>
+  <si>
+    <t>• Inspection of Biologics Manufacturers</t>
+  </si>
+  <si>
+    <t>• Inspection des fabricants biologiques</t>
+  </si>
+  <si>
+    <t>The Speaker is responsible for the Administration’s overall direction and management.</t>
+  </si>
+  <si>
+    <t>Le Speaker est chargé de la direction et de la gestion de l’administration.</t>
+  </si>
+  <si>
+    <t>RIGHT TO APPEAL An appeal shall lie from the present decision.</t>
+  </si>
+  <si>
+    <t>RIGHT TO APPEAL Un appel doit être lié à la décision présentée.</t>
+  </si>
+  <si>
+    <t>For me there is no doubt, if the Council of Europe did not exist, we would have to invent it.</t>
+  </si>
+  <si>
+    <t>Pour moi, si le Conseil de l'Europe n'a pas existé, nous pouvons inventer cette idée.</t>
+  </si>
+  <si>
+    <t>• Department of Health — Province of New Brunswick</t>
+  </si>
+  <si>
+    <t>• Ministère de santé — Province de New Brunswick</t>
+  </si>
+  <si>
+    <t>Areas of Leadership</t>
+  </si>
+  <si>
+    <t>Les régions de leadership</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +371,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -707,8 +724,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1087,7 +1107,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1097,562 +1117,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C32" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C33">
-        <v>84</v>
+        <f>SUM(C2:C31)</f>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <f>SUM(D2:D31)</f>
+        <v>69</v>
       </c>
       <c r="E33">
-        <v>71</v>
+        <f>SUM(E2:E31)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C34" t="s">
-        <v>33</v>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C35">
-        <v>2.8</v>
+        <f>AVERAGE(C2:C31)</f>
+        <v>2.5333333333333332</v>
       </c>
       <c r="D35">
-        <v>2.3333333330000001</v>
+        <f>AVERAGE(D2:D31)</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E35">
-        <v>2.3666666670000001</v>
+        <f>AVERAGE(E2:E31)</f>
+        <v>2.0666666666666669</v>
       </c>
     </row>
   </sheetData>
